--- a/output.xlsx
+++ b/output.xlsx
@@ -12,63 +12,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+  <si>
+    <t>num1</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>num2</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>together</t>
-  </si>
-  <si>
-    <t>comparison</t>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>4.0</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>артур номер один оу есс</t>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>петя на веранде настю о ессс</t>
+    <t>-12.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>arturick</t>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>8.33333</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>pow</t>
+  </si>
+  <si>
+    <t>8.9161E12</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>arturick petyaticks</t>
-  </si>
-  <si>
-    <t>Эта строка меньше строки ниже Строки различны</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>petyaticks</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>petyaticks petyaticks</t>
-  </si>
-  <si>
-    <t>Эта строка больше строки выше Строки различны</t>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -142,7 +187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -172,53 +217,150 @@
       <c r="B2" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="1">
         <v>10</v>
       </c>
       <c r="C4" t="s" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="1">
+      <c r="E6" t="s" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="1">
         <v>16</v>
       </c>
-      <c r="D5" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s" s="1">
-        <v>18</v>
+      <c r="B9" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s" s="1">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
